--- a/results/error_statistics_21006845.xlsx
+++ b/results/error_statistics_21006845.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Error Statistics" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Error Statistics'!$A$1:$C$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Error Statistics'!$A$1:$C$42</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="21">
   <si>
     <t>Error Type</t>
   </si>
@@ -40,19 +40,40 @@
     <t>Offsets</t>
   </si>
   <si>
+    <t>Drift</t>
+  </si>
+  <si>
+    <t>Linear Interpolation</t>
+  </si>
+  <si>
     <t>Count</t>
   </si>
   <si>
     <t>Total Duration Hours</t>
   </si>
   <si>
+    <t>Min Duration Hours</t>
+  </si>
+  <si>
+    <t>25% Duration Hours</t>
+  </si>
+  <si>
+    <t>Mean Duration Hours</t>
+  </si>
+  <si>
+    <t>Median Duration Hours</t>
+  </si>
+  <si>
+    <t>75% Duration Hours</t>
+  </si>
+  <si>
+    <t>Max Duration Hours</t>
+  </si>
+  <si>
+    <t>Frequency Percent</t>
+  </si>
+  <si>
     <t>Avg Duration Hours</t>
-  </si>
-  <si>
-    <t>Max Duration Hours</t>
-  </si>
-  <si>
-    <t>Frequency Percent</t>
   </si>
   <si>
     <t>Avg Magnitude Mm</t>
@@ -425,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -452,10 +473,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3">
-        <v>44</v>
+        <v>20655</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -463,10 +484,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3">
-        <v>0</v>
+        <v>40460.36666666669</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -474,10 +495,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
+        <v>0.5166666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -485,10 +506,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -496,54 +517,54 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3">
-        <v>0</v>
+        <v>1.958865488582264</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3">
-        <v>243</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3">
-        <v>2025.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3">
-        <v>8.336625514403291</v>
+        <v>8760.25</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3">
-        <v>63.25</v>
+        <v>20.05202112563211</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -551,146 +572,355 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>0.6599557303859205</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3">
-        <v>44</v>
+        <v>1988.766666666667</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C13" s="3">
-        <v>213.8666666666667</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3">
-        <v>4.86060606060606</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3">
-        <v>1615.937886363637</v>
+        <v>8.051686909581646</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="3">
-        <v>9361.799999999999</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3">
-        <v>0.06967249096909972</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C18" s="3">
-        <v>173</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C19" s="3">
-        <v>498.9166666666667</v>
+        <v>0.9856260459153752</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="3">
-        <v>2.883911368015414</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C21" s="3">
-        <v>1227.228208092486</v>
+        <v>213.8666666666667</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C22" s="3">
-        <v>9398.5</v>
+        <v>4.86060606060606</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1615.937886363637</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="3">
+        <v>9361.799999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.1059915979852345</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0.1625347581951372</v>
+      <c r="B26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="3">
+        <v>498.9166666666667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2.883911368015414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1227.228208092486</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="3">
+        <v>9398.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.2472614156552366</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3">
+        <v>18124.05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="3">
+        <v>3020.675</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="3">
+        <v>18.5732142857143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="3">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="3">
+        <v>8.98221799313103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C23"/>
+  <autoFilter ref="A1:C42"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>